--- a/Data/구성원별 전력소비 추이.xlsx
+++ b/Data/구성원별 전력소비 추이.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0CC0E2-04A7-4A0D-8399-B1625EBF9386}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08EA5F7B-7B90-42A4-8424-6EA17477AE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>관측수</t>
   </si>
@@ -131,24 +125,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>가중치 최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>가중치 최소값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가중치 최대값</t>
+    <t>내가 계산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인 비율</t>
+    <t>원래값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -263,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,11 +318,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -341,6 +357,345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53646336"/>
+        <c:axId val="81180288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53646336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81180288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81180288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53646336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>241.09532493102179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.99630741501568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.36373823589986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.96439322522909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.49794488833885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.71521196189065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207.18166029878091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221.36373823589986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229.99630741501568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209.03149655144858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206.56504821455835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>217.66406573056446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53647360"/>
+        <c:axId val="81182016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53647360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81182016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81182016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53647360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446368</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120274</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403414</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203576</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120277</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,18 +987,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CECB845-FF88-4425-9EB3-3D8770038521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="102" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -1366,7 +1721,7 @@
         <v>1.1076487252124645</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" ref="E12:Q12" si="4">E11/$P11</f>
+        <f t="shared" ref="E12:O12" si="4">E11/$P11</f>
         <v>1.0566572237960339</v>
       </c>
       <c r="F12" s="8">
@@ -1417,85 +1772,150 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C13" s="16"/>
     </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>221</v>
+      </c>
+      <c r="E14" s="4">
+        <v>228</v>
+      </c>
+      <c r="F14" s="4">
+        <v>218</v>
+      </c>
+      <c r="G14" s="4">
+        <v>206</v>
+      </c>
+      <c r="H14" s="4">
+        <v>201</v>
+      </c>
+      <c r="I14" s="4">
+        <v>193</v>
+      </c>
+      <c r="J14" s="4">
+        <v>193</v>
+      </c>
+      <c r="K14" s="4">
+        <v>204</v>
+      </c>
+      <c r="L14" s="4">
+        <v>211</v>
+      </c>
+      <c r="M14" s="4">
+        <v>198</v>
+      </c>
+      <c r="N14" s="4">
+        <v>198</v>
+      </c>
+      <c r="O14" s="4">
+        <v>207</v>
+      </c>
+    </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <f>$S22*720*D12</f>
+        <v>241.09532493102179</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <f t="shared" ref="E15:O15" si="6">$S22*720*E12</f>
+        <v>229.99630741501568</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>221.36373823589986</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>213.96439322522909</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>211.49794488833885</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>204.71521196189065</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>207.18166029878091</v>
       </c>
       <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="P15">
-        <f>353-77</f>
-        <v>276</v>
+        <f t="shared" si="6"/>
+        <v>221.36373823589986</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>229.99630741501568</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>209.03149655144858</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>206.56504821455835</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>217.66406573056446</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>58517</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>114171</v>
+        <f>D14-D15</f>
+        <v>-20.095324931021793</v>
       </c>
       <c r="E16" s="1">
-        <v>96765</v>
+        <f t="shared" ref="E16:O16" si="7">E14-E15</f>
+        <v>-1.9963074150156785</v>
       </c>
       <c r="F16" s="1">
-        <v>101380</v>
+        <f t="shared" si="7"/>
+        <v>-3.3637382358998593</v>
       </c>
       <c r="G16" s="1">
-        <v>25666</v>
+        <f t="shared" si="7"/>
+        <v>-7.9643932252290881</v>
       </c>
       <c r="H16" s="1">
-        <v>3618</v>
-      </c>
-      <c r="I16">
-        <v>871</v>
-      </c>
-      <c r="J16">
-        <v>115</v>
-      </c>
-      <c r="K16">
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>-10.49794488833885</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="7"/>
+        <v>-11.715211961890645</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="7"/>
+        <v>-14.181660298780912</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="7"/>
+        <v>-17.363738235899859</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM(B16:K16)</f>
-        <v>401135</v>
-      </c>
-      <c r="M16">
-        <f>STDEV(B16:K16)</f>
-        <v>48598.38310353316</v>
-      </c>
-      <c r="P16">
-        <f>353+77</f>
-        <v>430</v>
+        <f t="shared" si="7"/>
+        <v>-18.996307415015679</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="7"/>
+        <v>-11.031496551448583</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="7"/>
+        <v>-8.5650482145583453</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="7"/>
+        <v>-10.664065730564459</v>
       </c>
       <c r="T16">
         <f>(60*60*24)*100</f>
@@ -1507,46 +1927,6 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>(B16/$L16)*100</f>
-        <v>14.587856955887668</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:L17" si="6">(D16/$L16)*100</f>
-        <v>28.461989105911972</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="6"/>
-        <v>24.122801550600173</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>25.273287048001297</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>6.3983446969224822</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>0.90194074314133654</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>0.21713388260809954</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>2.8668652697969511E-2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="6"/>
-        <v>7.9773642290002118E-3</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
       <c r="V17">
         <f>1.28*24</f>
         <v>30.72</v>
@@ -1656,10 +2036,10 @@
         <v>24</v>
       </c>
       <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" t="s">
         <v>28</v>
-      </c>
-      <c r="V21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
@@ -1674,47 +2054,47 @@
         <v>0.30694444444444446</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:O22" si="7">E2/720</f>
+        <f t="shared" ref="E22:O22" si="8">E2/720</f>
         <v>0.31666666666666665</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30277777777777776</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28611111111111109</v>
       </c>
       <c r="H22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27916666666666667</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26805555555555555</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26805555555555555</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28333333333333333</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29305555555555557</v>
       </c>
       <c r="M22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="P22">
@@ -1725,7 +2105,7 @@
         <f>STDEV(D22:O22)</f>
         <v>1.5505646848006182E-2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="17">
         <f>P22-Q22</f>
         <v>0.27129990870754933</v>
       </c>
@@ -1743,71 +2123,71 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:O30" si="8">D3/720</f>
+        <f t="shared" ref="D23:O30" si="9">D3/720</f>
         <v>0.42777777777777776</v>
       </c>
       <c r="E23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="F23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.42638888888888887</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39861111111111114</v>
       </c>
       <c r="H23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39166666666666666</v>
       </c>
       <c r="I23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.37361111111111112</v>
       </c>
       <c r="J23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.37222222222222223</v>
       </c>
       <c r="K23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3972222222222222</v>
       </c>
       <c r="L23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.41388888888888886</v>
       </c>
       <c r="M23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38611111111111113</v>
       </c>
       <c r="N23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38194444444444442</v>
       </c>
       <c r="O23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.40555555555555556</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P30" si="9">AVERAGE(D23:O23)</f>
+        <f t="shared" ref="P23:P30" si="10">AVERAGE(D23:O23)</f>
         <v>0.40162037037037046</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q30" si="10">STDEV(D23:O23)</f>
+        <f t="shared" ref="Q23:Q30" si="11">STDEV(D23:O23)</f>
         <v>2.276663725261141E-2</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R30" si="11">P23-Q23</f>
+        <f t="shared" ref="R23:R30" si="12">P23-Q23</f>
         <v>0.37885373311775905</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S30" si="12">P23+Q23</f>
+        <f t="shared" ref="S23:S30" si="13">P23+Q23</f>
         <v>0.42438700762298187</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T30" si="13">S23*720</f>
+        <f t="shared" ref="T23:T30" si="14">S23*720</f>
         <v>305.55864548854697</v>
       </c>
     </row>
@@ -1816,71 +2196,71 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.46944444444444444</v>
       </c>
       <c r="E24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.48333333333333334</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.46527777777777779</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44027777777777777</v>
       </c>
       <c r="H24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4152777777777778</v>
       </c>
       <c r="J24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.41805555555555557</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45277777777777778</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4777777777777778</v>
       </c>
       <c r="M24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.43194444444444446</v>
       </c>
       <c r="N24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.42222222222222222</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44722222222222224</v>
       </c>
       <c r="P24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.44641203703703708</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3454309503927483E-2</v>
       </c>
       <c r="R24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.42295772753310962</v>
       </c>
       <c r="S24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.46986634654096454</v>
       </c>
       <c r="T24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>338.30376950949449</v>
       </c>
     </row>
@@ -1889,71 +2269,71 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.49027777777777776</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50694444444444442</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4861111111111111</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45416666666666666</v>
       </c>
       <c r="I25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4375</v>
       </c>
       <c r="J25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="K25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.48055555555555557</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51111111111111107</v>
       </c>
       <c r="M25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="N25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44305555555555554</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="P25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.46979166666666661</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4874298178572656E-2</v>
       </c>
       <c r="R25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.44491736848809393</v>
       </c>
       <c r="S25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49466596484523928</v>
       </c>
       <c r="T25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>356.15949468857229</v>
       </c>
     </row>
@@ -1962,71 +2342,71 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51944444444444449</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53472222222222221</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51249999999999996</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.48472222222222222</v>
       </c>
       <c r="H26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4777777777777778</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="J26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.46250000000000002</v>
       </c>
       <c r="K26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50277777777777777</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4777777777777778</v>
       </c>
       <c r="N26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.46388888888888891</v>
       </c>
       <c r="O26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.49166666666666664</v>
       </c>
       <c r="P26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.49328703703703702</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7060391301747019E-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.46622664573528999</v>
       </c>
       <c r="S26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.520347428338784</v>
       </c>
       <c r="T26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>374.6501484039245</v>
       </c>
     </row>
@@ -2035,71 +2415,71 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5805555555555556</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56944444444444442</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52916666666666667</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51111111111111107</v>
       </c>
       <c r="J27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51388888888888884</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="M27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53611111111111109</v>
       </c>
       <c r="N27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51666666666666672</v>
       </c>
       <c r="O27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54305555555555551</v>
       </c>
       <c r="P27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5449074074074074</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5762320484628572E-2</v>
       </c>
       <c r="R27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.51914508692277883</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="12"/>
+      <c r="S27" s="17">
+        <f t="shared" si="13"/>
         <v>0.57066972789203596</v>
       </c>
       <c r="T27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>410.8822040822659</v>
       </c>
     </row>
@@ -2108,71 +2488,71 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58750000000000002</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56527777777777777</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54583333333333328</v>
       </c>
       <c r="G28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="H28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51944444444444449</v>
       </c>
       <c r="I28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.49305555555555558</v>
       </c>
       <c r="J28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51944444444444449</v>
       </c>
       <c r="K28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54305555555555551</v>
       </c>
       <c r="L28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56388888888888888</v>
       </c>
       <c r="M28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52222222222222225</v>
       </c>
       <c r="N28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51388888888888884</v>
       </c>
       <c r="O28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55694444444444446</v>
       </c>
       <c r="P28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.53819444444444442</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.688919671749666E-2</v>
       </c>
       <c r="R28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.51130524772694774</v>
       </c>
       <c r="S28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5650836411619411</v>
       </c>
       <c r="T28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>406.8602216365976</v>
       </c>
     </row>
@@ -2181,71 +2561,71 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61944444444444446</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59444444444444444</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66805555555555551</v>
       </c>
       <c r="H29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65833333333333333</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67222222222222228</v>
       </c>
       <c r="J29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66111111111111109</v>
       </c>
       <c r="K29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.68194444444444446</v>
       </c>
       <c r="L29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.68472222222222223</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60972222222222228</v>
       </c>
       <c r="N29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66249999999999998</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63888888888888884</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.64386574074074077</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6098766019846587E-2</v>
       </c>
       <c r="R29">
-        <f t="shared" si="11"/>
+        <f>P29-Q29</f>
         <v>0.60776697472089414</v>
       </c>
       <c r="S29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.67996450676058739</v>
       </c>
       <c r="T29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>489.5744448676229</v>
       </c>
     </row>
@@ -2254,88 +2634,94 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89722222222222225</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63749999999999996</v>
       </c>
       <c r="F30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53749999999999998</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54027777777777775</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="J30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54722222222222228</v>
       </c>
       <c r="K30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59722222222222221</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60277777777777775</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54583333333333328</v>
       </c>
       <c r="N30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51249999999999996</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57638888888888884</v>
       </c>
       <c r="P30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.59328703703703711</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10280308406258769</v>
       </c>
       <c r="R30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.49048395297444941</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="12"/>
+      <c r="S30" s="17">
+        <f t="shared" si="13"/>
         <v>0.69609012109962476</v>
       </c>
       <c r="T30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>501.18488719172984</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:O10 R10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>400</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:O14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489F2365-68B5-478C-A0EC-D2761D0915B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
